--- a/numeros.xlsx
+++ b/numeros.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="27315" windowHeight="13095" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="27315" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="2" r:id="rId1"/>
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Item</t>
   </si>
   <si>
     <t>Costo</t>
-  </si>
-  <si>
-    <t>Valor</t>
   </si>
   <si>
     <t>HP</t>
@@ -35,13 +32,96 @@
   <si>
     <t>Def</t>
   </si>
+  <si>
+    <t>Efecto</t>
+  </si>
+  <si>
+    <t>Vit: 20</t>
+  </si>
+  <si>
+    <t>Vit: 24</t>
+  </si>
+  <si>
+    <t>Vit: 28</t>
+  </si>
+  <si>
+    <t>Vit: 32</t>
+  </si>
+  <si>
+    <t>Vit: 36</t>
+  </si>
+  <si>
+    <t>Vit: 40</t>
+  </si>
+  <si>
+    <t>Def: 1</t>
+  </si>
+  <si>
+    <t>Def: 0</t>
+  </si>
+  <si>
+    <t>Def: 2</t>
+  </si>
+  <si>
+    <t>Def: 3</t>
+  </si>
+  <si>
+    <t>Def: 4</t>
+  </si>
+  <si>
+    <t>Def: 5</t>
+  </si>
+  <si>
+    <t>Enr: 4</t>
+  </si>
+  <si>
+    <t>Enr: 6</t>
+  </si>
+  <si>
+    <t>Enr: 8</t>
+  </si>
+  <si>
+    <t>Enr: 10</t>
+  </si>
+  <si>
+    <t>Enr: 12</t>
+  </si>
+  <si>
+    <t>Atk: 4</t>
+  </si>
+  <si>
+    <t>Atk: 6</t>
+  </si>
+  <si>
+    <t>Atk: 8</t>
+  </si>
+  <si>
+    <t>Atk: 10</t>
+  </si>
+  <si>
+    <t>Atk: 12</t>
+  </si>
+  <si>
+    <t>PV + 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -91,6 +171,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,15 +574,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -522,15 +612,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>619125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -560,15 +650,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -598,15 +688,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>619125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -636,15 +726,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -750,15 +840,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>666750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -788,15 +878,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -826,16 +916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>714375</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -864,16 +954,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -902,16 +992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,6 +1020,44 @@
         <a:xfrm>
           <a:off x="76200" y="15163800"/>
           <a:ext cx="533400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="25 Imagen" descr="potion.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="8172450"/>
+          <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2235,10 +2363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2247,7 +2375,7 @@
     <col min="2" max="3" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2255,199 +2383,206 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54.95" customHeight="1">
+    <row r="2" spans="1:7" ht="54.95" customHeight="1">
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54.95" customHeight="1">
+      <c r="B3" s="6">
         <v>20</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B3" s="1">
+    <row r="4" spans="1:7" ht="54.95" customHeight="1">
+      <c r="B4" s="6">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54.95" customHeight="1">
+      <c r="B5" s="6">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54.95" customHeight="1" thickBot="1">
+      <c r="B6" s="6">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54.95" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B4" s="1">
+    <row r="9" spans="1:7" ht="54.95" customHeight="1">
+      <c r="B9" s="6">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54.95" customHeight="1">
+      <c r="B10" s="6">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="54.95" customHeight="1">
+      <c r="B11" s="6">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6">
+        <v>160</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="68.25" customHeight="1">
+      <c r="B12" s="6">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="66.75" customHeight="1" thickBot="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="7">
+        <v>230</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B6" s="1">
-        <v>80</v>
-      </c>
-      <c r="C6" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="54.95" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B10" s="1">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B11" s="1">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="68.25" customHeight="1">
-      <c r="B12" s="1">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3">
-        <v>230</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B15" s="1">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B16" s="1">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B17" s="1">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="54.95" customHeight="1">
-      <c r="B20" s="1">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="B21" s="1">
-        <v>60</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="64.5" customHeight="1">
-      <c r="B22" s="1">
-        <v>100</v>
-      </c>
-      <c r="C22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="63" customHeight="1">
-      <c r="B23" s="1">
-        <v>160</v>
-      </c>
-      <c r="C23" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="54.95" customHeight="1"/>
-    <row r="25" spans="1:3" ht="54.95" customHeight="1"/>
-    <row r="26" spans="1:3" ht="24.95" customHeight="1"/>
-    <row r="27" spans="1:3" ht="24.95" customHeight="1"/>
-    <row r="28" spans="1:3" ht="24.95" customHeight="1"/>
-    <row r="29" spans="1:3" ht="24.95" customHeight="1"/>
-    <row r="30" spans="1:3" ht="24.95" customHeight="1"/>
+    <row r="14" spans="1:7" ht="54.95" customHeight="1"/>
+    <row r="15" spans="1:7" ht="54.95" customHeight="1"/>
+    <row r="16" spans="1:7" ht="54.95" customHeight="1"/>
+    <row r="17" ht="54.95" customHeight="1"/>
+    <row r="18" ht="54.95" customHeight="1"/>
+    <row r="19" ht="54.95" customHeight="1"/>
+    <row r="20" ht="54.95" customHeight="1"/>
+    <row r="21" ht="60" customHeight="1"/>
+    <row r="22" ht="64.5" customHeight="1"/>
+    <row r="23" ht="63" customHeight="1"/>
+    <row r="24" ht="54.95" customHeight="1"/>
+    <row r="25" ht="54.95" customHeight="1"/>
+    <row r="26" ht="24.95" customHeight="1"/>
+    <row r="27" ht="24.95" customHeight="1"/>
+    <row r="28" ht="24.95" customHeight="1"/>
+    <row r="29" ht="24.95" customHeight="1"/>
+    <row r="30" ht="24.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2455,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -2549,7 +2684,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -2629,7 +2764,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -2709,7 +2844,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
